--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
@@ -187,16 +187,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ldtdzxel" xfId="1"/>
-    <cellStyle name="ldtdzxel_Alternate" xfId="2"/>
+    <cellStyle name="peihwuh0" xfId="1"/>
+    <cellStyle name="peihwuh0_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="lgp41n1h" xfId="5"/>
-    <cellStyle name="lgp41n1h_Alternate" xfId="6"/>
-    <cellStyle name="kniugt5p" xfId="7"/>
-    <cellStyle name="kniugt5p_Alternate" xfId="8"/>
-    <cellStyle name="bsji3irh" xfId="9"/>
-    <cellStyle name="bsji3irh_Alternate" xfId="10"/>
+    <cellStyle name="cr3yq1h1" xfId="5"/>
+    <cellStyle name="cr3yq1h1_Alternate" xfId="6"/>
+    <cellStyle name="s0hihbp2" xfId="7"/>
+    <cellStyle name="s0hihbp2_Alternate" xfId="8"/>
+    <cellStyle name="k00f5wtz" xfId="9"/>
+    <cellStyle name="k00f5wtz_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
@@ -187,16 +187,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="peihwuh0" xfId="1"/>
-    <cellStyle name="peihwuh0_Alternate" xfId="2"/>
+    <cellStyle name="f2b33x3n" xfId="1"/>
+    <cellStyle name="f2b33x3n_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="cr3yq1h1" xfId="5"/>
-    <cellStyle name="cr3yq1h1_Alternate" xfId="6"/>
-    <cellStyle name="s0hihbp2" xfId="7"/>
-    <cellStyle name="s0hihbp2_Alternate" xfId="8"/>
-    <cellStyle name="k00f5wtz" xfId="9"/>
-    <cellStyle name="k00f5wtz_Alternate" xfId="10"/>
+    <cellStyle name="qxnjcwmn" xfId="5"/>
+    <cellStyle name="qxnjcwmn_Alternate" xfId="6"/>
+    <cellStyle name="s3vjuz3d" xfId="7"/>
+    <cellStyle name="s3vjuz3d_Alternate" xfId="8"/>
+    <cellStyle name="401bnxb4" xfId="9"/>
+    <cellStyle name="401bnxb4_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
